--- a/SupportingDocs/Calculators/WDT.xlsx
+++ b/SupportingDocs/Calculators/WDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\Masters\SupportingDocs\Calculators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A490FE-C37B-4A5A-ADA3-7532CB0673CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EBCB3C-5376-436F-B8CD-CB65ED62991B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{6FE154D1-9408-484E-8BBE-1ECE0188AFD8}"/>
+    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{6FE154D1-9408-484E-8BBE-1ECE0188AFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables (2)" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
   <si>
     <t>N</t>
   </si>
@@ -175,20 +175,44 @@
     <t>B-</t>
   </si>
   <si>
-    <t>16s6p</t>
-  </si>
-  <si>
     <t>24s8pole</t>
   </si>
   <si>
     <t>24s4pole</t>
+  </si>
+  <si>
+    <t>16s6pole</t>
+  </si>
+  <si>
+    <t>Integral examples</t>
+  </si>
+  <si>
+    <t>Reverse Engineerd</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>₰</t>
+  </si>
+  <si>
+    <t>27s6pole,yc=4</t>
+  </si>
+  <si>
+    <t>27s6pole,nlay=1</t>
+  </si>
+  <si>
+    <t>Anything + is upper layer</t>
+  </si>
+  <si>
+    <t>Anything + is lower</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +250,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -256,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -280,6 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1295257-16CD-4001-9DF2-C6F519FD2D00}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -836,8 +867,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <f>(C4-1)/2</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -845,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1D9DA0-C87A-49C0-9BE1-89A4BDE34A77}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1092,13 +1136,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867518C4-0CB7-4184-8BB9-867B8EA9A39B}">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
@@ -1111,7 +1162,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="18"/>
     </row>
@@ -1279,6 +1330,15 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>33</v>
@@ -1372,6 +1432,19 @@
         <v>12</v>
       </c>
     </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+    </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>33</v>
@@ -1383,7 +1456,7 @@
         <v>40</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -1391,7 +1464,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -1417,7 +1490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>1</v>
@@ -1444,7 +1517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1473,7 +1546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -1502,7 +1575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -1531,7 +1604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
@@ -1542,7 +1615,7 @@
         <v>40</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -1550,7 +1623,7 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>38</v>
       </c>
@@ -1576,7 +1649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>1</v>
@@ -1603,7 +1676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -1632,7 +1705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -1661,7 +1734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>3</v>
       </c>
@@ -1690,12 +1763,534 @@
         <v>24</v>
       </c>
     </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2">
+        <v>6</v>
+      </c>
+      <c r="H32" s="2">
+        <v>7</v>
+      </c>
+      <c r="I32" s="2">
+        <v>8</v>
+      </c>
+      <c r="J32" s="2">
+        <v>9</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5">
+        <v>10</v>
+      </c>
+      <c r="E33" s="12">
+        <v>11</v>
+      </c>
+      <c r="F33" s="12">
+        <v>19</v>
+      </c>
+      <c r="G33" s="12">
+        <v>20</v>
+      </c>
+      <c r="H33" s="6">
+        <v>-3</v>
+      </c>
+      <c r="I33" s="7">
+        <v>-12</v>
+      </c>
+      <c r="J33" s="17">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="9">
+        <v>5</v>
+      </c>
+      <c r="D34" s="11">
+        <v>13</v>
+      </c>
+      <c r="E34" s="14">
+        <v>14</v>
+      </c>
+      <c r="F34" s="14">
+        <v>22</v>
+      </c>
+      <c r="G34" s="14">
+        <v>23</v>
+      </c>
+      <c r="H34" s="4">
+        <v>-6</v>
+      </c>
+      <c r="I34" s="5">
+        <v>-15</v>
+      </c>
+      <c r="J34" s="12">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+      <c r="B35" s="8">
+        <v>7</v>
+      </c>
+      <c r="C35" s="8">
+        <v>8</v>
+      </c>
+      <c r="D35" s="17">
+        <v>16</v>
+      </c>
+      <c r="E35" s="17">
+        <v>17</v>
+      </c>
+      <c r="F35" s="17">
+        <v>25</v>
+      </c>
+      <c r="G35" s="17">
+        <v>26</v>
+      </c>
+      <c r="H35" s="10">
+        <v>-9</v>
+      </c>
+      <c r="I35" s="11">
+        <v>-18</v>
+      </c>
+      <c r="J35" s="14">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>6</v>
+      </c>
+      <c r="H39" s="2">
+        <v>7</v>
+      </c>
+      <c r="I39" s="2">
+        <v>8</v>
+      </c>
+      <c r="J39" s="2">
+        <v>9</v>
+      </c>
+      <c r="K39" s="2">
+        <v>10</v>
+      </c>
+      <c r="L39" s="2">
+        <v>11</v>
+      </c>
+      <c r="M39" s="2">
+        <v>12</v>
+      </c>
+      <c r="N39" s="2">
+        <v>13</v>
+      </c>
+      <c r="O39" s="2">
+        <v>14</v>
+      </c>
+      <c r="P39" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>16</v>
+      </c>
+      <c r="R39" s="2">
+        <v>17</v>
+      </c>
+      <c r="S39" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>-6</v>
+      </c>
+      <c r="F40" s="5">
+        <v>10</v>
+      </c>
+      <c r="G40" s="12">
+        <v>-14</v>
+      </c>
+      <c r="H40" s="12">
+        <v>11</v>
+      </c>
+      <c r="I40" s="12">
+        <v>-15</v>
+      </c>
+      <c r="J40" s="12">
+        <v>19</v>
+      </c>
+      <c r="K40" s="12">
+        <v>-23</v>
+      </c>
+      <c r="L40" s="12">
+        <v>20</v>
+      </c>
+      <c r="M40" s="12">
+        <v>-24</v>
+      </c>
+      <c r="N40" s="4">
+        <v>-6</v>
+      </c>
+      <c r="O40" s="12">
+        <v>10</v>
+      </c>
+      <c r="P40" s="5">
+        <v>-15</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>19</v>
+      </c>
+      <c r="R40" s="12">
+        <v>-24</v>
+      </c>
+      <c r="S40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>2</v>
+      </c>
+      <c r="B41" s="9">
+        <v>4</v>
+      </c>
+      <c r="C41" s="9">
+        <v>-8</v>
+      </c>
+      <c r="D41" s="9">
+        <v>5</v>
+      </c>
+      <c r="E41" s="9">
+        <v>-9</v>
+      </c>
+      <c r="F41" s="11">
+        <v>13</v>
+      </c>
+      <c r="G41" s="9">
+        <v>-17</v>
+      </c>
+      <c r="H41" s="14">
+        <v>14</v>
+      </c>
+      <c r="I41" s="9">
+        <v>-18</v>
+      </c>
+      <c r="J41" s="14">
+        <v>22</v>
+      </c>
+      <c r="K41" s="9">
+        <v>-26</v>
+      </c>
+      <c r="L41" s="14">
+        <v>23</v>
+      </c>
+      <c r="M41" s="9">
+        <v>-27</v>
+      </c>
+      <c r="N41" s="10">
+        <v>-9</v>
+      </c>
+      <c r="O41" s="14">
+        <v>13</v>
+      </c>
+      <c r="P41" s="11">
+        <v>-18</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>22</v>
+      </c>
+      <c r="R41" s="14">
+        <v>-27</v>
+      </c>
+      <c r="S41" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>3</v>
+      </c>
+      <c r="B42" s="8">
+        <v>7</v>
+      </c>
+      <c r="C42" s="8">
+        <v>-11</v>
+      </c>
+      <c r="D42" s="8">
+        <v>8</v>
+      </c>
+      <c r="E42" s="8">
+        <v>-12</v>
+      </c>
+      <c r="F42" s="17">
+        <v>16</v>
+      </c>
+      <c r="G42" s="8">
+        <v>-20</v>
+      </c>
+      <c r="H42" s="17">
+        <v>17</v>
+      </c>
+      <c r="I42" s="8">
+        <v>-21</v>
+      </c>
+      <c r="J42" s="17">
+        <v>25</v>
+      </c>
+      <c r="K42" s="8">
+        <v>-2</v>
+      </c>
+      <c r="L42" s="17">
+        <v>26</v>
+      </c>
+      <c r="M42" s="8">
+        <v>-3</v>
+      </c>
+      <c r="N42" s="6">
+        <v>-3</v>
+      </c>
+      <c r="O42" s="17">
+        <v>7</v>
+      </c>
+      <c r="P42" s="7">
+        <v>-12</v>
+      </c>
+      <c r="Q42" s="17">
+        <v>16</v>
+      </c>
+      <c r="R42" s="17">
+        <v>-21</v>
+      </c>
+      <c r="S42" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B43" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="B43:M43"/>
+    <mergeCell ref="N43:S43"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D23:I23"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SupportingDocs/Calculators/WDT.xlsx
+++ b/SupportingDocs/Calculators/WDT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\Masters\SupportingDocs\Calculators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EBCB3C-5376-436F-B8CD-CB65ED62991B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0204CB3B-1977-4A48-808F-336C7212A2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{6FE154D1-9408-484E-8BBE-1ECE0188AFD8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="58">
   <si>
     <t>N</t>
   </si>
@@ -206,13 +206,19 @@
   </si>
   <si>
     <t>Anything + is lower</t>
+  </si>
+  <si>
+    <t>12s2pole,q=2</t>
+  </si>
+  <si>
+    <t>9s8pole,q=9/4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +262,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -282,11 +296,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -307,10 +330,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1295257-16CD-4001-9DF2-C6F519FD2D00}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,7 +715,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -735,7 +762,7 @@
       </c>
       <c r="C9">
         <f>C6*C2/(2*C4*C10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -747,7 +774,7 @@
       </c>
       <c r="C10">
         <f>GCD(C2,C5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -771,7 +798,7 @@
       </c>
       <c r="C12">
         <f>(C2-C3)/(2*C5*C4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -795,7 +822,7 @@
       </c>
       <c r="C14">
         <f>C2/(C6*C5*C4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -804,7 +831,7 @@
       </c>
       <c r="C15">
         <f>FLOOR(C12,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -822,7 +849,7 @@
       </c>
       <c r="C17">
         <f>GCD(C16,C5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -831,7 +858,7 @@
       </c>
       <c r="C18">
         <f>C2/C17</f>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -871,7 +898,7 @@
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C22">
@@ -889,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1D9DA0-C87A-49C0-9BE1-89A4BDE34A77}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -950,7 +977,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -997,7 +1024,7 @@
       </c>
       <c r="C9">
         <f>C6*C2/(2*C4*C10)</f>
-        <v>2.6666666666666665</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1009,7 +1036,7 @@
       </c>
       <c r="C10">
         <f>GCD(C2,C5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1033,7 +1060,7 @@
       </c>
       <c r="C12">
         <f>(C2-C3)/(2*C5*C4)</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1045,7 +1072,7 @@
       </c>
       <c r="C13" t="b">
         <f>IF(MOD(C12,1)=0,TRUE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1057,7 +1084,7 @@
       </c>
       <c r="C14">
         <f>C2/(C6*C5*C4)</f>
-        <v>1.3333333333333333</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1066,7 +1093,7 @@
       </c>
       <c r="C15">
         <f>FLOOR(C12,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1075,7 +1102,7 @@
       </c>
       <c r="C16">
         <f>C6*C5*(C12-C15)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1084,7 +1111,7 @@
       </c>
       <c r="C17">
         <f>GCD(C16,C5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1093,7 +1120,7 @@
       </c>
       <c r="C18">
         <f>C2/C17</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1102,7 +1129,7 @@
       </c>
       <c r="C19">
         <f>C5/C17</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -1136,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867518C4-0CB7-4184-8BB9-867B8EA9A39B}">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1161,10 +1188,10 @@
       <c r="C1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -1331,13 +1358,13 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -1349,8 +1376,8 @@
       <c r="C8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
@@ -1433,17 +1460,17 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -1455,14 +1482,14 @@
       <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
@@ -1614,14 +1641,14 @@
       <c r="C23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
@@ -1773,14 +1800,14 @@
       <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
@@ -1956,14 +1983,14 @@
       <c r="C37" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
@@ -2256,41 +2283,338 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18" t="s">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B47" s="20">
+        <v>1</v>
+      </c>
+      <c r="C47" s="20">
+        <v>2</v>
+      </c>
+      <c r="D47" s="20">
+        <v>3</v>
+      </c>
+      <c r="E47" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A48" s="20">
+        <v>1</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="21">
+        <v>2</v>
+      </c>
+      <c r="D48" s="8">
+        <v>3</v>
+      </c>
+      <c r="E48" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="20">
+        <v>2</v>
+      </c>
+      <c r="B49" s="9">
+        <v>5</v>
+      </c>
+      <c r="C49" s="22">
+        <v>6</v>
+      </c>
+      <c r="D49" s="3">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="20">
+        <v>3</v>
+      </c>
+      <c r="B50" s="8">
+        <v>9</v>
+      </c>
+      <c r="C50" s="23">
+        <v>10</v>
+      </c>
+      <c r="D50" s="9">
+        <v>11</v>
+      </c>
+      <c r="E50" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B54" s="20">
+        <v>1</v>
+      </c>
+      <c r="C54" s="20">
+        <v>2</v>
+      </c>
+      <c r="D54" s="20">
+        <v>3</v>
+      </c>
+      <c r="E54" s="20"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="20">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="21">
+        <v>8</v>
+      </c>
+      <c r="D55" s="8">
+        <v>6</v>
+      </c>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="20">
+        <v>2</v>
+      </c>
+      <c r="B56" s="9">
+        <v>4</v>
+      </c>
+      <c r="C56" s="22">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>4</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="20">
+        <v>3</v>
+      </c>
+      <c r="B57" s="8">
+        <v>7</v>
+      </c>
+      <c r="C57" s="23">
+        <v>5</v>
+      </c>
+      <c r="D57" s="9">
+        <v>3</v>
+      </c>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2">
+        <v>4</v>
+      </c>
+      <c r="F61" s="2">
+        <v>5</v>
+      </c>
+      <c r="G61" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>1</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3">
+        <v>7</v>
+      </c>
+      <c r="D62" s="3">
+        <v>13</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2</v>
+      </c>
+      <c r="F62" s="5">
+        <v>8</v>
+      </c>
+      <c r="G62" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>2</v>
+      </c>
+      <c r="B63" s="9">
+        <v>3</v>
+      </c>
+      <c r="C63" s="9">
+        <v>9</v>
+      </c>
+      <c r="D63" s="9">
+        <v>15</v>
+      </c>
+      <c r="E63" s="9">
+        <v>4</v>
+      </c>
+      <c r="F63" s="11">
+        <v>10</v>
+      </c>
+      <c r="G63" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>3</v>
+      </c>
+      <c r="B64" s="8">
+        <v>5</v>
+      </c>
+      <c r="C64" s="8">
+        <v>11</v>
+      </c>
+      <c r="D64" s="8">
+        <v>17</v>
+      </c>
+      <c r="E64" s="8">
+        <v>6</v>
+      </c>
+      <c r="F64" s="17">
+        <v>12</v>
+      </c>
+      <c r="G64" s="8">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D52:I52"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A15:I15"/>
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="D37:I37"/>
     <mergeCell ref="B43:M43"/>
     <mergeCell ref="N43:S43"/>
     <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SupportingDocs/Calculators/WDT.xlsx
+++ b/SupportingDocs/Calculators/WDT.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\Masters\SupportingDocs\Calculators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0204CB3B-1977-4A48-808F-336C7212A2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AE5BC2-55B0-4DE0-9963-C49ECB645341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{6FE154D1-9408-484E-8BBE-1ECE0188AFD8}"/>
+    <workbookView xWindow="-7400" yWindow="3600" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{6FE154D1-9408-484E-8BBE-1ECE0188AFD8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Variables (2)" sheetId="4" r:id="rId1"/>
-    <sheet name="Variables" sheetId="1" r:id="rId2"/>
+    <sheet name="Baseline" sheetId="1" r:id="rId1"/>
+    <sheet name="Custom Motor" sheetId="4" r:id="rId2"/>
     <sheet name="WDT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="59">
   <si>
     <t>N</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>9s8pole,q=9/4</t>
+  </si>
+  <si>
+    <t>18s2pole</t>
   </si>
 </sst>
 </file>
@@ -331,13 +334,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,268 +654,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1295257-16CD-4001-9DF2-C6F519FD2D00}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.453125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <f>360/C4</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <f>C6*(C2-C3)/(2*C4)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <f>C6*C2/(2*C4*C10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <f>GCD(C2,C5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="b">
-        <f>IF(MOD(C9,1)=0,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <f>(C2-C3)/(2*C5*C4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="b">
-        <f>IF(MOD(C12,1)=0,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <f>C2/(C6*C5*C4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15">
-        <f>FLOOR(C12,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16">
-        <f>C6*C5*(C12-C15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <f>GCD(C16,C5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <f>C2/C17</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19">
-        <f>C5/C17</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20">
-        <f>2*C4*C8/C4</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <f>C4</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22">
-        <f>(C4-1)/2</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1D9DA0-C87A-49C0-9BE1-89A4BDE34A77}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -1161,12 +902,274 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1295257-16CD-4001-9DF2-C6F519FD2D00}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <f>360/C4</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <f>C6*(C2-C3)/(2*C4)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <f>C6*C2/(2*C4*C10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <f>GCD(C2,C5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="b">
+        <f>IF(MOD(C9,1)=0,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <f>(C2-C3)/(2*C5*C4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="b">
+        <f>IF(MOD(C12,1)=0,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <f>C2/(C6*C5*C4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <f>FLOOR(C12,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <f>C6*C5*(C12-C15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <f>GCD(C16,C5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <f>C2/C17</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <f>C5/C17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <f>2*C4*C8/C4</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f>C4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <f>(C4-1)/2</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867518C4-0CB7-4184-8BB9-867B8EA9A39B}">
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1188,10 +1191,10 @@
       <c r="C1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="19"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -1358,13 +1361,13 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -1376,8 +1379,8 @@
       <c r="C8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
@@ -1460,17 +1463,17 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -1482,14 +1485,14 @@
       <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
@@ -1641,14 +1644,14 @@
       <c r="C23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
@@ -1800,14 +1803,14 @@
       <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
@@ -1983,14 +1986,14 @@
       <c r="C37" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
@@ -2283,28 +2286,28 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19" t="s">
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
@@ -2316,14 +2319,14 @@
       <c r="C45" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
@@ -2340,27 +2343,27 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B47" s="20">
-        <v>1</v>
-      </c>
-      <c r="C47" s="20">
-        <v>2</v>
-      </c>
-      <c r="D47" s="20">
-        <v>3</v>
-      </c>
-      <c r="E47" s="20">
+      <c r="B47" s="19">
+        <v>1</v>
+      </c>
+      <c r="C47" s="19">
+        <v>2</v>
+      </c>
+      <c r="D47" s="19">
+        <v>3</v>
+      </c>
+      <c r="E47" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="20">
+      <c r="A48" s="19">
         <v>1</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>2</v>
       </c>
       <c r="D48" s="8">
@@ -2371,13 +2374,13 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="20">
+      <c r="A49" s="19">
         <v>2</v>
       </c>
       <c r="B49" s="9">
         <v>5</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="21">
         <v>6</v>
       </c>
       <c r="D49" s="3">
@@ -2388,13 +2391,13 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="20">
+      <c r="A50" s="19">
         <v>3</v>
       </c>
       <c r="B50" s="8">
         <v>9</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="22">
         <v>10</v>
       </c>
       <c r="D50" s="9">
@@ -2414,14 +2417,14 @@
       <c r="C52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
@@ -2435,25 +2438,25 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B54" s="20">
-        <v>1</v>
-      </c>
-      <c r="C54" s="20">
-        <v>2</v>
-      </c>
-      <c r="D54" s="20">
-        <v>3</v>
-      </c>
-      <c r="E54" s="20"/>
+      <c r="B54" s="19">
+        <v>1</v>
+      </c>
+      <c r="C54" s="19">
+        <v>2</v>
+      </c>
+      <c r="D54" s="19">
+        <v>3</v>
+      </c>
+      <c r="E54" s="19"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="20">
+      <c r="A55" s="19">
         <v>1</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <v>8</v>
       </c>
       <c r="D55" s="8">
@@ -2462,13 +2465,13 @@
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="20">
+      <c r="A56" s="19">
         <v>2</v>
       </c>
       <c r="B56" s="9">
         <v>4</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="21">
         <v>2</v>
       </c>
       <c r="D56" s="3">
@@ -2477,13 +2480,13 @@
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="20">
+      <c r="A57" s="19">
         <v>3</v>
       </c>
       <c r="B57" s="8">
         <v>7</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="22">
         <v>5</v>
       </c>
       <c r="D57" s="9">
@@ -2601,8 +2604,142 @@
         <v>18</v>
       </c>
     </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2">
+        <v>5</v>
+      </c>
+      <c r="G68" s="2">
+        <v>6</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3</v>
+      </c>
+      <c r="E69" s="16">
+        <v>4</v>
+      </c>
+      <c r="F69" s="7">
+        <v>5</v>
+      </c>
+      <c r="G69" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>2</v>
+      </c>
+      <c r="B70" s="9">
+        <v>7</v>
+      </c>
+      <c r="C70" s="9">
+        <v>8</v>
+      </c>
+      <c r="D70" s="11">
+        <v>9</v>
+      </c>
+      <c r="E70" s="13">
+        <v>10</v>
+      </c>
+      <c r="F70" s="5">
+        <v>11</v>
+      </c>
+      <c r="G70" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>3</v>
+      </c>
+      <c r="B71" s="8">
+        <v>13</v>
+      </c>
+      <c r="C71" s="8">
+        <v>14</v>
+      </c>
+      <c r="D71" s="17">
+        <v>15</v>
+      </c>
+      <c r="E71" s="15">
+        <v>16</v>
+      </c>
+      <c r="F71" s="11">
+        <v>17</v>
+      </c>
+      <c r="G71" s="11">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="N43:S43"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D66:I66"/>
     <mergeCell ref="D45:I45"/>
     <mergeCell ref="D52:I52"/>
     <mergeCell ref="D8:E8"/>
@@ -2613,8 +2750,6 @@
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="D37:I37"/>
     <mergeCell ref="B43:M43"/>
-    <mergeCell ref="N43:S43"/>
-    <mergeCell ref="D16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
